--- a/material/model/rank 5 models.xlsx
+++ b/material/model/rank 5 models.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nospa\OneDrive\문서\GitHub\EducationML-Project-Shim\material\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA19B25-8E91-45BE-8D87-140BCC0EFA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0798A9B8-F509-4D8A-A3EF-39BF43C09BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$H$13:$H$112</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$I$13:$I$112</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$J$13:$J$112</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$K$13:$K$112</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$L$13:$L$112</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$B$13:$B$112</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$C$13:$C$112</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$D$13:$D$112</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$13:$E$112</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$13:$F$112</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$13:$B$112</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$13:$C$112</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$13:$D$112</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$E$13:$E$112</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$13:$F$112</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$H$13:$H$112</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$I$13:$I$112</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$J$13:$J$112</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$K$13:$K$112</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$13:$L$112</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -167,6 +167,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -189,27 +192,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -225,14 +228,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:defRPr>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
               <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="95000"/>
-                </a:sysClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -251,6 +256,15 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{A125CC52-2AD4-47AE-9786-0F4C66ABCF43}">
           <cx:tx>
             <cx:txData>
@@ -318,14 +332,12 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0.25"/>
+        <cx:catScaling gapWidth="1.5"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling min="90"/>
         <cx:majorGridlines/>
-        <cx:majorTickMarks type="in"/>
-        <cx:minorTickMarks type="out"/>
         <cx:tickLabels/>
         <cx:numFmt formatCode="#,##0.0_);[빨강](#,##0.0)" sourceLinked="0"/>
         <cx:txPr>
@@ -333,13 +345,15 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1800"/>
+              <a:defRPr sz="1800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="95000"/>
-                </a:sysClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri" panose="020F0502020204030204"/>
               <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
@@ -348,27 +362,13 @@
         </cx:txPr>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF">
-                <a:lumMod val="95000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -377,27 +377,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -413,14 +413,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
+            <a:defRPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:defRPr>
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1600" b="1" i="0" u="none" strike="noStrike" spc="100" baseline="0">
               <a:solidFill>
-                <a:sysClr val="window" lastClr="FFFFFF">
-                  <a:lumMod val="95000"/>
-                </a:sysClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst>
                 <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
@@ -439,6 +441,18 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:plotSurface>
+          <cx:spPr>
+            <a:solidFill>
+              <a:sysClr val="window" lastClr="FFFFFF"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </cx:spPr>
+        </cx:plotSurface>
         <cx:series layoutId="boxWhisker" uniqueId="{E54D55BA-EB60-425F-BD2B-A6C18BFC2CCC}">
           <cx:tx>
             <cx:txData>
@@ -448,6 +462,7 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -460,6 +475,7 @@
           </cx:tx>
           <cx:dataId val="1"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -472,6 +488,7 @@
           </cx:tx>
           <cx:dataId val="2"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -484,6 +501,7 @@
           </cx:tx>
           <cx:dataId val="3"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
@@ -496,29 +514,22 @@
           </cx:tx>
           <cx:dataId val="4"/>
           <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="0.25"/>
+        <cx:catScaling gapWidth="1.5"/>
         <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling max="100" min="97.5"/>
-        <cx:majorGridlines/>
-        <cx:majorTickMarks type="in"/>
-        <cx:minorTickMarks type="out"/>
-        <cx:tickLabels/>
-        <cx:numFmt formatCode="#,##0.0_);[빨강](#,##0.0)" sourceLinked="0"/>
         <cx:txPr>
           <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr" rtl="0">
-              <a:defRPr sz="1600"/>
+              <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:sysClr val="window" lastClr="FFFFFF">
                   <a:lumMod val="95000"/>
@@ -530,28 +541,40 @@
           </a:p>
         </cx:txPr>
       </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="100" min="97.5"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="#,##0.0_);[빨강](#,##0.0)" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1600">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="b" align="ctr" overlay="0">
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1400"/>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="window" lastClr="FFFFFF">
-                <a:lumMod val="95000"/>
-              </a:sysClr>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-            <a:ea typeface="맑은 고딕" panose="020B0503020000020004" pitchFamily="50" charset="-127"/>
-          </a:endParaRPr>
-        </a:p>
-      </cx:txPr>
-    </cx:legend>
+    <cx:legend pos="b" align="ctr" overlay="0"/>
   </cx:chart>
+  <cx:spPr>
+    <a:solidFill>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:solidFill>
+  </cx:spPr>
 </cx:chartSpace>
 </file>
 
@@ -636,14 +659,15 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="408">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -653,16 +677,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -681,34 +706,40 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="900"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:dataLabel>
@@ -717,23 +748,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -749,9 +773,12 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -766,25 +793,33 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -799,7 +834,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -820,7 +855,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -836,16 +871,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -857,20 +893,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -881,14 +917,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -900,13 +936,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -918,7 +955,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -926,16 +963,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -945,17 +994,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-            <a:lumOff val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -964,14 +1026,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -983,16 +1045,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1001,10 +1064,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea>
@@ -1012,7 +1084,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1020,7 +1092,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1028,16 +1100,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1050,12 +1123,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1066,28 +1141,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" spc="100">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="1"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -1103,8 +1169,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -1114,7 +1181,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1122,9 +1189,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1135,8 +1202,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -1146,21 +1214,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="409">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="408">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -1170,16 +1239,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1198,34 +1268,40 @@
       <a:gradFill flip="none" rotWithShape="1">
         <a:gsLst>
           <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
           </a:gs>
           <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
             </a:schemeClr>
           </a:gs>
         </a:gsLst>
         <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
         </a:path>
         <a:tileRect/>
       </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="900"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
-      </a:schemeClr>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
   </cs:dataLabel>
@@ -1234,23 +1310,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -1266,9 +1335,12 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1283,25 +1355,33 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1316,7 +1396,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1337,7 +1417,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -1353,16 +1433,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1374,20 +1455,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1398,14 +1479,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1417,13 +1498,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1435,7 +1517,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -1443,16 +1525,28 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
@@ -1462,17 +1556,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
-            <a:lumOff val="10000"/>
-          </a:schemeClr>
-        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+                <a:lumOff val="10000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -1481,14 +1588,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:prstDash val="dash"/>
@@ -1500,16 +1607,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1518,10 +1626,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
     <cs:defRPr sz="900"/>
   </cs:legend>
   <cs:plotArea>
@@ -1529,7 +1646,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -1537,7 +1654,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1545,16 +1662,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1567,12 +1685,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
         <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1583,28 +1703,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" spc="100">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1800" b="1"/>
   </cs:title>
   <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
+    <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -1620,8 +1731,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -1631,7 +1743,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -1639,9 +1751,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1652,8 +1764,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -1663,7 +1776,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1674,15 +1787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>442705</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:rowOff>10766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>374374</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>48867</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1718,8 +1831,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="13744575" y="2533649"/>
-              <a:ext cx="4733925" cy="3600451"/>
+              <a:off x="14191835" y="2702614"/>
+              <a:ext cx="4743865" cy="3558210"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1796,7 +1909,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8991600" y="2533649"/>
+              <a:off x="8991600" y="2743199"/>
               <a:ext cx="4733925" cy="3600451"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2093,15 +2206,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S112"/>
+  <dimension ref="A1:AB112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="I7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
@@ -2109,7 +2222,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>99.214999999999932</v>
       </c>
@@ -2132,7 +2245,7 @@
         <v>1.645</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.32661138988100158</v>
       </c>
@@ -2170,7 +2283,7 @@
         <v>6.3952006416921739E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>93.54800000000003</v>
       </c>
@@ -2208,7 +2321,7 @@
         <v>7.619813530526845E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.86619628260573811</v>
       </c>
@@ -2240,7 +2353,7 @@
         <v>0.10014612068692426</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
       <c r="I7">
         <f>$H$4*A3/10</f>
         <v>8.4135094033346014E-2</v>
@@ -2277,7 +2390,7 @@
         <v>0.1551062291552148</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>A2-$H$2*A3/10</f>
         <v>99.161272426364505</v>
@@ -2314,7 +2427,7 @@
         <v>0.18480742197217082</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>A2+$H$2*A3/10</f>
         <v>99.26872757363536</v>
@@ -2351,7 +2464,7 @@
         <v>0.24288975459199591</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>99.161272426364505</v>
       </c>
@@ -2368,7 +2481,7 @@
         <v>98.755047993583048</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>99.26872757363536</v>
       </c>
@@ -2405,7 +2518,7 @@
         <v>0.24288975459199591</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
         <v>1</v>
@@ -2439,7 +2552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>1</v>
       </c>
@@ -2473,8 +2586,24 @@
       <c r="L13">
         <v>98.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <f>A13+1</f>
         <v>2</v>
@@ -2509,8 +2638,24 @@
       <c r="L14">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <f t="shared" ref="A15:A78" si="4">A14+1</f>
         <v>3</v>
@@ -2545,8 +2690,24 @@
       <c r="L15">
         <v>98.4</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -2581,8 +2742,24 @@
       <c r="L16">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -2617,8 +2794,24 @@
       <c r="L17">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -2653,8 +2846,24 @@
       <c r="L18">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -2689,8 +2898,24 @@
       <c r="L19">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -2725,8 +2950,24 @@
       <c r="L20">
         <v>98.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <f t="shared" si="4"/>
         <v>9</v>
@@ -2761,8 +3002,24 @@
       <c r="L21">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <f t="shared" si="4"/>
         <v>10</v>
@@ -2797,8 +3054,24 @@
       <c r="L22">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <f t="shared" si="4"/>
         <v>11</v>
@@ -2833,8 +3106,24 @@
       <c r="L23">
         <v>98.6</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="shared" si="4"/>
         <v>12</v>
@@ -2869,8 +3158,24 @@
       <c r="L24">
         <v>99.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <f t="shared" si="4"/>
         <v>13</v>
@@ -2905,8 +3210,24 @@
       <c r="L25">
         <v>99</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
+      <c r="AB25" s="5"/>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <f t="shared" si="4"/>
         <v>14</v>
@@ -2941,8 +3262,24 @@
       <c r="L26">
         <v>98.2</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <f t="shared" si="4"/>
         <v>15</v>
@@ -2977,8 +3314,24 @@
       <c r="L27">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <f t="shared" si="4"/>
         <v>16</v>
@@ -3013,8 +3366,24 @@
       <c r="L28">
         <v>98.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <f t="shared" si="4"/>
         <v>17</v>
@@ -3049,8 +3418,24 @@
       <c r="L29">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <f t="shared" si="4"/>
         <v>18</v>
@@ -3085,8 +3470,24 @@
       <c r="L30">
         <v>98.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -3121,8 +3522,24 @@
       <c r="L31">
         <v>99.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="5"/>
+      <c r="AB31" s="5"/>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <f t="shared" si="4"/>
         <v>20</v>
@@ -3157,8 +3574,24 @@
       <c r="L32">
         <v>98.9</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="5"/>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="5"/>
+      <c r="AB32" s="5"/>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <f t="shared" si="4"/>
         <v>21</v>
@@ -3193,8 +3626,24 @@
       <c r="L33">
         <v>99</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="5"/>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="5"/>
+      <c r="AB33" s="5"/>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <f t="shared" si="4"/>
         <v>22</v>
@@ -3230,7 +3679,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <f t="shared" si="4"/>
         <v>23</v>
@@ -3266,7 +3715,7 @@
         <v>98.5</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <f t="shared" si="4"/>
         <v>24</v>
@@ -3302,7 +3751,7 @@
         <v>98.8</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <f t="shared" si="4"/>
         <v>25</v>
@@ -3338,7 +3787,7 @@
         <v>99.4</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <f t="shared" si="4"/>
         <v>26</v>
@@ -3374,7 +3823,7 @@
         <v>98.9</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <f t="shared" si="4"/>
         <v>27</v>
@@ -3410,7 +3859,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <f t="shared" si="4"/>
         <v>28</v>
@@ -3446,7 +3895,7 @@
         <v>99.9</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <f t="shared" si="4"/>
         <v>29</v>
@@ -3482,7 +3931,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -3518,7 +3967,7 @@
         <v>99.2</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -3554,7 +4003,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -3590,7 +4039,7 @@
         <v>99.1</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -3626,7 +4075,7 @@
         <v>98.3</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -3662,7 +4111,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -3698,7 +4147,7 @@
         <v>98.6</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -6039,6 +6488,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M13:AB33"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
